--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A11_11_社員データIF_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A11_11_社員データIF_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19701～19800\E_本稼動_19736【マスタ】従業員マスタ_IF取込(言語設定)\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19301～19400\E_本稼動_19390_再【マスタ】従業員IF性能検証\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="22575" windowHeight="8700" tabRatio="844"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="22575" windowHeight="8700" tabRatio="844"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -37,29 +37,32 @@
     <sheet name="テスト・シナリオ6_別紙_再" sheetId="48" r:id="rId23"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="50" r:id="rId24"/>
     <sheet name="テスト・シナリオ7_別紙" sheetId="52" r:id="rId25"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230529" sheetId="42" r:id="rId26"/>
-    <sheet name="テスト・シナリオ1_別紙_20230529" sheetId="43" r:id="rId27"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20231221" sheetId="55" r:id="rId28"/>
-    <sheet name="テスト・シナリオ1_別紙_20231221" sheetId="56" r:id="rId29"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230816" sheetId="13" r:id="rId30"/>
-    <sheet name="テスト・シナリオ1_別紙_20230816" sheetId="41" r:id="rId31"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId32"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId33"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)20240123" sheetId="57" r:id="rId26"/>
+    <sheet name="テスト・シナリオ1_別紙20240123" sheetId="58" r:id="rId27"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230529" sheetId="42" r:id="rId28"/>
+    <sheet name="テスト・シナリオ1_別紙_20230529" sheetId="43" r:id="rId29"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20231221" sheetId="55" r:id="rId30"/>
+    <sheet name="テスト・シナリオ1_別紙_20231221" sheetId="56" r:id="rId31"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230816" sheetId="13" r:id="rId32"/>
+    <sheet name="テスト・シナリオ1_別紙_20230816" sheetId="41" r:id="rId33"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId34"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId35"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId34"/>
-    <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" hidden="1">'[1]１．InfoCube (YKCH0010)案１:１．InfoCube (YKCH0010) 案２'!$W$5:$W$5</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
     <definedName name="_Regression_X" localSheetId="8" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="28" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="32" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="30" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="26" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="30" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="28" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="14" hidden="1">#REF!</definedName>
@@ -73,14 +76,14 @@
     <definedName name="_Regression_X" localSheetId="21" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="23" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="a" localSheetId="26" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="a" localSheetId="30" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="a" localSheetId="28" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="a" localSheetId="32" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="a" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="aa" localSheetId="26" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="aa" localSheetId="30" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aa" localSheetId="28" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aa" localSheetId="32" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="aaa" localSheetId="26" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="aaa" localSheetId="30" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aaa" localSheetId="28" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aaa" localSheetId="32" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aaa" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="HTML1_1" hidden="1">"[Book2]Sheet1!$A$1:$H$484"</definedName>
     <definedName name="HTML1_10" hidden="1">"obminfo@us.oracle.com"</definedName>
@@ -101,10 +104,11 @@
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleType" hidden="1">[3]_ADFDI_LOV!$D$4:$I$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="25">'テスト仕様_テスト結果(テスト・シナリオ1)_20230529'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="29">'テスト仕様_テスト結果(テスト・シナリオ1)_20230816'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="27">'テスト仕様_テスト結果(テスト・シナリオ1)_20231221'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">'テスト仕様_テスト結果(テスト・シナリオ1)_20230529'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="31">'テスト仕様_テスト結果(テスト・シナリオ1)_20230816'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="29">'テスト仕様_テスト結果(テスト・シナリオ1)_20231221'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="25">'テスト仕様_テスト結果(テスト・シナリオ1)20240123'!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ2)_再'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$29</definedName>
@@ -115,14 +119,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="23">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$19</definedName>
-    <definedName name="wrn.仕様書表紙." localSheetId="26" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="wrn.仕様書表紙." localSheetId="30" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$20</definedName>
+    <definedName name="wrn.仕様書表紙." localSheetId="28" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="wrn.仕様書表紙." localSheetId="32" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="wrn.仕様書表紙." hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="関連表" localSheetId="8" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="28" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="32" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="30" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="26" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="30" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="28" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="14" hidden="1">#REF!</definedName>
@@ -147,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="1931">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -7361,8 +7366,210 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>割当作成の分岐に入っていること</t>
+    <rPh sb="0" eb="4">
+      <t>ワリアテサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータの割り当てが作成されていること</t>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。
+リターン値は以下となっていること。
+{
+  "returnCode" : "0",
+  "message" : "",
+  "errorDetail" : ""
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>割当更新の分岐に入っていること</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser368</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>l_user368</t>
+  </si>
+  <si>
+    <t>f_user368</t>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser369</t>
+  </si>
+  <si>
+    <t>l_user369</t>
+  </si>
+  <si>
+    <t>f_user369</t>
+  </si>
+  <si>
+    <t>【シナリオ1登録データ】</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmp、xxccd_user_role_tmp2に登録する(他のレコードは削除する)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザロール一時情報(xxccd_user_role_tmp)にテスト・シナリオ1_別紙【設定値パターン】を登録すること</t>
+    <rPh sb="45" eb="48">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザロール一時情報（新入社員用）(xxccd_user_role_tmp2)にテスト・シナリオ1_別紙【設定値パターン】を登録すること</t>
+    <rPh sb="11" eb="15">
+      <t>シンニュウシャイン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmp、xxccd_user_role_tmp2に登録する(他のレコードは削除する)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータの割り当てが更新されていること</t>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser368</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>割当更新確認用</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>Issue1.5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>E_本稼動_19390_再 対応</t>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>調達エージェント割当更新/作成の確認【システム統合テスト障害No.02】の対応に伴って再実施【E_本稼動_19390 対応再実行】</t>
+      <t>調達エージェント割当更新/作成の確認【システム統合テスト障害No.02】の対応に伴って再実施【E_本稼動_19390 対応再実行】【E_本稼動_19736 対応再実行】</t>
     </r>
     <r>
       <rPr>
@@ -7373,7 +7580,7 @@
         <charset val="128"/>
         <scheme val="major"/>
       </rPr>
-      <t>【E_本稼動_19736 対応再実行】</t>
+      <t>【E_本稼動_19390_再 対応再実行】</t>
     </r>
     <rPh sb="0" eb="2">
       <t>チョウタツ</t>
@@ -7408,67 +7615,51 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>割当作成の分岐に入っていること</t>
-    <rPh sb="0" eb="4">
-      <t>ワリアテサクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
+    <t>トレースをオフにした状態で、
+以下パラメータで、XXCMM002A11_11を起動すること
+{
+  "asyncId" : [非同期ID],
+  "idType" : "A",
+  "filePath": "/uspg/jp1/zb/py/devoicuser/dummy"
+}
+※asyncIdにシーケンス(xxccd_async_id_seq)のNEXTVALを設定</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テストデータの割り当てが作成されていること</t>
-    <rPh sb="7" eb="8">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
+    <t xml:space="preserve">正常終了する。
+非同期のため、リターン値はないこと。
+</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1-3</t>
+    <t>テーブル「非同期処理ステータス」に以下データ登録出力されること
+プロセスID：[非同期ID]
+IDタイプ：A</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>正常終了する。
-リターン値は以下となっていること。
-{
-  "returnCode" : "0",
-  "message" : "",
-  "errorDetail" : ""
-}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>割当更新の分岐に入っていること</t>
-    <rPh sb="0" eb="2">
-      <t>ワリアテ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
-    </rPh>
+    <t>XXCMM002A1103_TestUser366</t>
+  </si>
+  <si>
+    <t>l_user366</t>
+  </si>
+  <si>
+    <t>f_user366</t>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser367</t>
+  </si>
+  <si>
+    <t>l_user367</t>
+  </si>
+  <si>
+    <t>f_user367</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -7486,6 +7677,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>SCSK細沼</t>
     <rPh sb="4" eb="6">
       <t>ホソヌマ</t>
@@ -7497,107 +7692,28 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>XXCMM002A1103_TestUser368</t>
+    <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>l_user368</t>
-  </si>
-  <si>
-    <t>f_user368</t>
-  </si>
-  <si>
-    <t>ADD</t>
+    <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>XXCMM002A1103_TestUser369</t>
-  </si>
-  <si>
-    <t>l_user369</t>
-  </si>
-  <si>
-    <t>f_user369</t>
-  </si>
-  <si>
-    <t>【シナリオ1登録データ】</t>
+    <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmp、xxccd_user_role_tmp2に登録する(他のレコードは削除する)</t>
+    <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザロール一時情報(xxccd_user_role_tmp)にテスト・シナリオ1_別紙【設定値パターン】を登録すること</t>
-    <rPh sb="45" eb="48">
-      <t>セッテイチ</t>
-    </rPh>
+    <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザロール一時情報（新入社員用）(xxccd_user_role_tmp2)にテスト・シナリオ1_別紙【設定値パターン】を登録すること</t>
-    <rPh sb="11" eb="15">
-      <t>シンニュウシャイン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t>セッテイチ</t>
-    </rPh>
+    <t>-</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmp、xxccd_user_role_tmp2に登録する(他のレコードは削除する)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テストデータの割り当てが更新されていること</t>
-    <rPh sb="7" eb="8">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>XXCMM002A1103_TestUser368</t>
-  </si>
-  <si>
-    <t>REMOVE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>REMOVE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>割当更新確認用</t>
-    <rPh sb="0" eb="2">
-      <t>ワリアテ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="38"/>
   </si>
 </sst>
 </file>
@@ -11170,6 +11286,731 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>3638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>105984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="30931313"/>
+          <a:ext cx="7581900" cy="2674096"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>22687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>146512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="33693562"/>
+          <a:ext cx="7581900" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>22687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>146513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="30093112"/>
+          <a:ext cx="3400425" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -11889,7 +12730,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -12614,7 +13455,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -13345,14 +14186,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>3638</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>41738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>105984</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>144084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13655,14 +14496,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>22687</xdr:rowOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>60787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>146512</xdr:rowOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>13162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13968,14 +14809,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>22687</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>60787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2447925</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>146513</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>13163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20904,7 +21745,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45281</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -20928,7 +21769,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1875</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -27669,7 +28510,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -28093,18 +28934,33 @@
       <c r="H13" s="23"/>
       <c r="I13" s="85"/>
     </row>
-    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="84">
+        <v>45314</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
@@ -28114,6 +28970,9 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -33119,6 +33978,1685 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="9" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="9" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="9" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B11" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="60" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I12" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="108" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I13" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="108" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I14" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="60" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D15" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="60" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I16" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="108" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I17" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="108" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I18" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="67"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="72"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G19">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A2:W24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="223" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="222" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="222" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="222"/>
+    </row>
+    <row r="6" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="224" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B6" s="192" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C6" s="192" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D6" s="213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="213" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="213" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="213" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="213" t="s">
+        <v>274</v>
+      </c>
+      <c r="L6" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="213" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="213" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="213" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="213" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="214" t="s">
+        <v>136</v>
+      </c>
+      <c r="U6" s="214" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="W6" s="215"/>
+    </row>
+    <row r="7" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="225" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B7" s="219" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C7" s="188" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D7" s="119">
+        <v>1</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F7" s="119" t="s">
+        <v>705</v>
+      </c>
+      <c r="G7" s="190" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H7" s="190" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I7" s="118" t="s">
+        <v>391</v>
+      </c>
+      <c r="J7" s="119">
+        <v>1</v>
+      </c>
+      <c r="K7" s="119">
+        <v>1</v>
+      </c>
+      <c r="L7" s="119">
+        <v>1</v>
+      </c>
+      <c r="M7" s="119">
+        <v>1</v>
+      </c>
+      <c r="N7" s="119">
+        <v>1</v>
+      </c>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119" t="s">
+        <v>1892</v>
+      </c>
+      <c r="T7" s="217" t="str">
+        <f>D7&amp;",'"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"','"&amp;L7&amp;"','"&amp;M7&amp;"','"&amp;N7&amp;"','"&amp;O7&amp;"','"&amp;P7&amp;"','"&amp;Q7&amp;"','"&amp;R7&amp;"','"&amp;S7&amp;"');"</f>
+        <v>1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="U7" s="217" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!&amp;T7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V7" s="215"/>
+      <c r="W7" s="215"/>
+    </row>
+    <row r="8" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="225" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B8" s="219" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C8" s="188" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D8" s="119">
+        <v>2</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F8" s="119" t="s">
+        <v>706</v>
+      </c>
+      <c r="G8" s="190" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H8" s="190" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I8" s="118" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="119">
+        <v>1</v>
+      </c>
+      <c r="K8" s="119">
+        <v>1</v>
+      </c>
+      <c r="L8" s="119">
+        <v>1</v>
+      </c>
+      <c r="M8" s="119">
+        <v>1</v>
+      </c>
+      <c r="N8" s="119">
+        <v>1</v>
+      </c>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119" t="s">
+        <v>1892</v>
+      </c>
+      <c r="T8" s="217" t="str">
+        <f t="shared" ref="T8" si="0">D8&amp;",'"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"','"&amp;L8&amp;"','"&amp;M8&amp;"','"&amp;N8&amp;"','"&amp;O8&amp;"','"&amp;P8&amp;"','"&amp;Q8&amp;"','"&amp;R8&amp;"','"&amp;S8&amp;"');"</f>
+        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="U8" s="217" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!&amp;T8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V8" s="215"/>
+      <c r="W8" s="215"/>
+    </row>
+    <row r="11" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="224" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B11" s="192" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D11" s="213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="213" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="213" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="213" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="213" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="213" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="213" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="213" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="213" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" s="214" t="s">
+        <v>136</v>
+      </c>
+      <c r="U11" s="214" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="W11" s="215"/>
+    </row>
+    <row r="12" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="225" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B12" s="219" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C12" s="188" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D12" s="119">
+        <v>2</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>706</v>
+      </c>
+      <c r="G12" s="190" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H12" s="190" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I12" s="118" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="119">
+        <v>1</v>
+      </c>
+      <c r="K12" s="119">
+        <v>1</v>
+      </c>
+      <c r="L12" s="119">
+        <v>1</v>
+      </c>
+      <c r="M12" s="119">
+        <v>1</v>
+      </c>
+      <c r="N12" s="119">
+        <v>1</v>
+      </c>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119" t="s">
+        <v>1892</v>
+      </c>
+      <c r="T12" s="217" t="str">
+        <f t="shared" ref="T12" si="1">D12&amp;",'"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"','"&amp;M12&amp;"','"&amp;N12&amp;"','"&amp;O12&amp;"','"&amp;P12&amp;"','"&amp;Q12&amp;"','"&amp;R12&amp;"','"&amp;S12&amp;"');"</f>
+        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="U12" s="217" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!&amp;T12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V12" s="215"/>
+      <c r="W12" s="215"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B13" s="221"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B14" s="221"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="221"/>
+    </row>
+    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="222" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="224" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B18" s="192" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C18" s="192" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D18" s="213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="213" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="213" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="213" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="213" t="s">
+        <v>274</v>
+      </c>
+      <c r="L18" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="213" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="213" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="213" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="213" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18" s="214" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" s="214" t="s">
+        <v>137</v>
+      </c>
+      <c r="V18" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="W18" s="215"/>
+    </row>
+    <row r="19" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="225" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B19" s="219" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C19" s="188" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D19" s="119">
+        <v>1</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F19" s="119" t="s">
+        <v>705</v>
+      </c>
+      <c r="G19" s="190" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H19" s="190" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I19" s="118" t="s">
+        <v>391</v>
+      </c>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119">
+        <v>1</v>
+      </c>
+      <c r="O19" s="119">
+        <v>1</v>
+      </c>
+      <c r="P19" s="119">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="119">
+        <v>1</v>
+      </c>
+      <c r="R19" s="119">
+        <v>1</v>
+      </c>
+      <c r="S19" s="119" t="s">
+        <v>1905</v>
+      </c>
+      <c r="T19" s="217" t="str">
+        <f>D19&amp;",'"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"','"&amp;L19&amp;"','"&amp;M19&amp;"','"&amp;N19&amp;"','"&amp;O19&amp;"','"&amp;P19&amp;"','"&amp;Q19&amp;"','"&amp;R19&amp;"','"&amp;S19&amp;"');"</f>
+        <v>1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
+      </c>
+      <c r="U19" s="217" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!&amp;T19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V19" s="215"/>
+      <c r="W19" s="215"/>
+    </row>
+    <row r="20" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="225" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B20" s="219" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C20" s="188" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D20" s="119">
+        <v>2</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F20" s="119" t="s">
+        <v>706</v>
+      </c>
+      <c r="G20" s="190" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H20" s="190" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I20" s="118" t="s">
+        <v>391</v>
+      </c>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119">
+        <v>1</v>
+      </c>
+      <c r="O20" s="119">
+        <v>1</v>
+      </c>
+      <c r="P20" s="119">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="119">
+        <v>1</v>
+      </c>
+      <c r="R20" s="119">
+        <v>1</v>
+      </c>
+      <c r="S20" s="119" t="s">
+        <v>1905</v>
+      </c>
+      <c r="T20" s="217" t="str">
+        <f t="shared" ref="T20" si="2">D20&amp;",'"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"','"&amp;H20&amp;"','"&amp;I20&amp;"','"&amp;J20&amp;"','"&amp;K20&amp;"','"&amp;L20&amp;"','"&amp;M20&amp;"','"&amp;N20&amp;"','"&amp;O20&amp;"','"&amp;P20&amp;"','"&amp;Q20&amp;"','"&amp;R20&amp;"','"&amp;S20&amp;"');"</f>
+        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
+      </c>
+      <c r="U20" s="217" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!&amp;T20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V20" s="215"/>
+      <c r="W20" s="215"/>
+    </row>
+    <row r="23" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A23" s="224" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B23" s="192" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C23" s="192" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D23" s="213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="213" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="213" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="213" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="213" t="s">
+        <v>274</v>
+      </c>
+      <c r="L23" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="213" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="213" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="213" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="213" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="213" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="214" t="s">
+        <v>136</v>
+      </c>
+      <c r="U23" s="214" t="s">
+        <v>137</v>
+      </c>
+      <c r="V23" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="W23" s="215"/>
+    </row>
+    <row r="24" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="225" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B24" s="219" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C24" s="188" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D24" s="119">
+        <v>2</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F24" s="119" t="s">
+        <v>706</v>
+      </c>
+      <c r="G24" s="190" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H24" s="190" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I24" s="118" t="s">
+        <v>391</v>
+      </c>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119">
+        <v>1</v>
+      </c>
+      <c r="O24" s="119">
+        <v>1</v>
+      </c>
+      <c r="P24" s="119">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="119">
+        <v>1</v>
+      </c>
+      <c r="R24" s="119">
+        <v>1</v>
+      </c>
+      <c r="S24" s="119" t="s">
+        <v>1905</v>
+      </c>
+      <c r="T24" s="217" t="str">
+        <f t="shared" ref="T24" si="3">D24&amp;",'"&amp;E24&amp;"','"&amp;F24&amp;"','"&amp;G24&amp;"','"&amp;H24&amp;"','"&amp;I24&amp;"','"&amp;J24&amp;"','"&amp;K24&amp;"','"&amp;L24&amp;"','"&amp;M24&amp;"','"&amp;N24&amp;"','"&amp;O24&amp;"','"&amp;P24&amp;"','"&amp;Q24&amp;"','"&amp;R24&amp;"','"&amp;S24&amp;"');"</f>
+        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
+      </c>
+      <c r="U24" s="217" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!&amp;T24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V24" s="215"/>
+      <c r="W24" s="215"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -34040,7 +36578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -37196,7 +39734,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
+    <col min="14" max="256" width="9" style="27"/>
+    <col min="257" max="269" width="6.625" style="27" customWidth="1"/>
+    <col min="270" max="512" width="9" style="27"/>
+    <col min="513" max="525" width="6.625" style="27" customWidth="1"/>
+    <col min="526" max="768" width="9" style="27"/>
+    <col min="769" max="781" width="6.625" style="27" customWidth="1"/>
+    <col min="782" max="1024" width="9" style="27"/>
+    <col min="1025" max="1037" width="6.625" style="27" customWidth="1"/>
+    <col min="1038" max="1280" width="9" style="27"/>
+    <col min="1281" max="1293" width="6.625" style="27" customWidth="1"/>
+    <col min="1294" max="1536" width="9" style="27"/>
+    <col min="1537" max="1549" width="6.625" style="27" customWidth="1"/>
+    <col min="1550" max="1792" width="9" style="27"/>
+    <col min="1793" max="1805" width="6.625" style="27" customWidth="1"/>
+    <col min="1806" max="2048" width="9" style="27"/>
+    <col min="2049" max="2061" width="6.625" style="27" customWidth="1"/>
+    <col min="2062" max="2304" width="9" style="27"/>
+    <col min="2305" max="2317" width="6.625" style="27" customWidth="1"/>
+    <col min="2318" max="2560" width="9" style="27"/>
+    <col min="2561" max="2573" width="6.625" style="27" customWidth="1"/>
+    <col min="2574" max="2816" width="9" style="27"/>
+    <col min="2817" max="2829" width="6.625" style="27" customWidth="1"/>
+    <col min="2830" max="3072" width="9" style="27"/>
+    <col min="3073" max="3085" width="6.625" style="27" customWidth="1"/>
+    <col min="3086" max="3328" width="9" style="27"/>
+    <col min="3329" max="3341" width="6.625" style="27" customWidth="1"/>
+    <col min="3342" max="3584" width="9" style="27"/>
+    <col min="3585" max="3597" width="6.625" style="27" customWidth="1"/>
+    <col min="3598" max="3840" width="9" style="27"/>
+    <col min="3841" max="3853" width="6.625" style="27" customWidth="1"/>
+    <col min="3854" max="4096" width="9" style="27"/>
+    <col min="4097" max="4109" width="6.625" style="27" customWidth="1"/>
+    <col min="4110" max="4352" width="9" style="27"/>
+    <col min="4353" max="4365" width="6.625" style="27" customWidth="1"/>
+    <col min="4366" max="4608" width="9" style="27"/>
+    <col min="4609" max="4621" width="6.625" style="27" customWidth="1"/>
+    <col min="4622" max="4864" width="9" style="27"/>
+    <col min="4865" max="4877" width="6.625" style="27" customWidth="1"/>
+    <col min="4878" max="5120" width="9" style="27"/>
+    <col min="5121" max="5133" width="6.625" style="27" customWidth="1"/>
+    <col min="5134" max="5376" width="9" style="27"/>
+    <col min="5377" max="5389" width="6.625" style="27" customWidth="1"/>
+    <col min="5390" max="5632" width="9" style="27"/>
+    <col min="5633" max="5645" width="6.625" style="27" customWidth="1"/>
+    <col min="5646" max="5888" width="9" style="27"/>
+    <col min="5889" max="5901" width="6.625" style="27" customWidth="1"/>
+    <col min="5902" max="6144" width="9" style="27"/>
+    <col min="6145" max="6157" width="6.625" style="27" customWidth="1"/>
+    <col min="6158" max="6400" width="9" style="27"/>
+    <col min="6401" max="6413" width="6.625" style="27" customWidth="1"/>
+    <col min="6414" max="6656" width="9" style="27"/>
+    <col min="6657" max="6669" width="6.625" style="27" customWidth="1"/>
+    <col min="6670" max="6912" width="9" style="27"/>
+    <col min="6913" max="6925" width="6.625" style="27" customWidth="1"/>
+    <col min="6926" max="7168" width="9" style="27"/>
+    <col min="7169" max="7181" width="6.625" style="27" customWidth="1"/>
+    <col min="7182" max="7424" width="9" style="27"/>
+    <col min="7425" max="7437" width="6.625" style="27" customWidth="1"/>
+    <col min="7438" max="7680" width="9" style="27"/>
+    <col min="7681" max="7693" width="6.625" style="27" customWidth="1"/>
+    <col min="7694" max="7936" width="9" style="27"/>
+    <col min="7937" max="7949" width="6.625" style="27" customWidth="1"/>
+    <col min="7950" max="8192" width="9" style="27"/>
+    <col min="8193" max="8205" width="6.625" style="27" customWidth="1"/>
+    <col min="8206" max="8448" width="9" style="27"/>
+    <col min="8449" max="8461" width="6.625" style="27" customWidth="1"/>
+    <col min="8462" max="8704" width="9" style="27"/>
+    <col min="8705" max="8717" width="6.625" style="27" customWidth="1"/>
+    <col min="8718" max="8960" width="9" style="27"/>
+    <col min="8961" max="8973" width="6.625" style="27" customWidth="1"/>
+    <col min="8974" max="9216" width="9" style="27"/>
+    <col min="9217" max="9229" width="6.625" style="27" customWidth="1"/>
+    <col min="9230" max="9472" width="9" style="27"/>
+    <col min="9473" max="9485" width="6.625" style="27" customWidth="1"/>
+    <col min="9486" max="9728" width="9" style="27"/>
+    <col min="9729" max="9741" width="6.625" style="27" customWidth="1"/>
+    <col min="9742" max="9984" width="9" style="27"/>
+    <col min="9985" max="9997" width="6.625" style="27" customWidth="1"/>
+    <col min="9998" max="10240" width="9" style="27"/>
+    <col min="10241" max="10253" width="6.625" style="27" customWidth="1"/>
+    <col min="10254" max="10496" width="9" style="27"/>
+    <col min="10497" max="10509" width="6.625" style="27" customWidth="1"/>
+    <col min="10510" max="10752" width="9" style="27"/>
+    <col min="10753" max="10765" width="6.625" style="27" customWidth="1"/>
+    <col min="10766" max="11008" width="9" style="27"/>
+    <col min="11009" max="11021" width="6.625" style="27" customWidth="1"/>
+    <col min="11022" max="11264" width="9" style="27"/>
+    <col min="11265" max="11277" width="6.625" style="27" customWidth="1"/>
+    <col min="11278" max="11520" width="9" style="27"/>
+    <col min="11521" max="11533" width="6.625" style="27" customWidth="1"/>
+    <col min="11534" max="11776" width="9" style="27"/>
+    <col min="11777" max="11789" width="6.625" style="27" customWidth="1"/>
+    <col min="11790" max="12032" width="9" style="27"/>
+    <col min="12033" max="12045" width="6.625" style="27" customWidth="1"/>
+    <col min="12046" max="12288" width="9" style="27"/>
+    <col min="12289" max="12301" width="6.625" style="27" customWidth="1"/>
+    <col min="12302" max="12544" width="9" style="27"/>
+    <col min="12545" max="12557" width="6.625" style="27" customWidth="1"/>
+    <col min="12558" max="12800" width="9" style="27"/>
+    <col min="12801" max="12813" width="6.625" style="27" customWidth="1"/>
+    <col min="12814" max="13056" width="9" style="27"/>
+    <col min="13057" max="13069" width="6.625" style="27" customWidth="1"/>
+    <col min="13070" max="13312" width="9" style="27"/>
+    <col min="13313" max="13325" width="6.625" style="27" customWidth="1"/>
+    <col min="13326" max="13568" width="9" style="27"/>
+    <col min="13569" max="13581" width="6.625" style="27" customWidth="1"/>
+    <col min="13582" max="13824" width="9" style="27"/>
+    <col min="13825" max="13837" width="6.625" style="27" customWidth="1"/>
+    <col min="13838" max="14080" width="9" style="27"/>
+    <col min="14081" max="14093" width="6.625" style="27" customWidth="1"/>
+    <col min="14094" max="14336" width="9" style="27"/>
+    <col min="14337" max="14349" width="6.625" style="27" customWidth="1"/>
+    <col min="14350" max="14592" width="9" style="27"/>
+    <col min="14593" max="14605" width="6.625" style="27" customWidth="1"/>
+    <col min="14606" max="14848" width="9" style="27"/>
+    <col min="14849" max="14861" width="6.625" style="27" customWidth="1"/>
+    <col min="14862" max="15104" width="9" style="27"/>
+    <col min="15105" max="15117" width="6.625" style="27" customWidth="1"/>
+    <col min="15118" max="15360" width="9" style="27"/>
+    <col min="15361" max="15373" width="6.625" style="27" customWidth="1"/>
+    <col min="15374" max="15616" width="9" style="27"/>
+    <col min="15617" max="15629" width="6.625" style="27" customWidth="1"/>
+    <col min="15630" max="15872" width="9" style="27"/>
+    <col min="15873" max="15885" width="6.625" style="27" customWidth="1"/>
+    <col min="15886" max="16128" width="9" style="27"/>
+    <col min="16129" max="16141" width="6.625" style="27" customWidth="1"/>
+    <col min="16142" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;10　
+&amp;R
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -38140,7 +40981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -38495,310 +41336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
-    <col min="14" max="256" width="9" style="27"/>
-    <col min="257" max="269" width="6.625" style="27" customWidth="1"/>
-    <col min="270" max="512" width="9" style="27"/>
-    <col min="513" max="525" width="6.625" style="27" customWidth="1"/>
-    <col min="526" max="768" width="9" style="27"/>
-    <col min="769" max="781" width="6.625" style="27" customWidth="1"/>
-    <col min="782" max="1024" width="9" style="27"/>
-    <col min="1025" max="1037" width="6.625" style="27" customWidth="1"/>
-    <col min="1038" max="1280" width="9" style="27"/>
-    <col min="1281" max="1293" width="6.625" style="27" customWidth="1"/>
-    <col min="1294" max="1536" width="9" style="27"/>
-    <col min="1537" max="1549" width="6.625" style="27" customWidth="1"/>
-    <col min="1550" max="1792" width="9" style="27"/>
-    <col min="1793" max="1805" width="6.625" style="27" customWidth="1"/>
-    <col min="1806" max="2048" width="9" style="27"/>
-    <col min="2049" max="2061" width="6.625" style="27" customWidth="1"/>
-    <col min="2062" max="2304" width="9" style="27"/>
-    <col min="2305" max="2317" width="6.625" style="27" customWidth="1"/>
-    <col min="2318" max="2560" width="9" style="27"/>
-    <col min="2561" max="2573" width="6.625" style="27" customWidth="1"/>
-    <col min="2574" max="2816" width="9" style="27"/>
-    <col min="2817" max="2829" width="6.625" style="27" customWidth="1"/>
-    <col min="2830" max="3072" width="9" style="27"/>
-    <col min="3073" max="3085" width="6.625" style="27" customWidth="1"/>
-    <col min="3086" max="3328" width="9" style="27"/>
-    <col min="3329" max="3341" width="6.625" style="27" customWidth="1"/>
-    <col min="3342" max="3584" width="9" style="27"/>
-    <col min="3585" max="3597" width="6.625" style="27" customWidth="1"/>
-    <col min="3598" max="3840" width="9" style="27"/>
-    <col min="3841" max="3853" width="6.625" style="27" customWidth="1"/>
-    <col min="3854" max="4096" width="9" style="27"/>
-    <col min="4097" max="4109" width="6.625" style="27" customWidth="1"/>
-    <col min="4110" max="4352" width="9" style="27"/>
-    <col min="4353" max="4365" width="6.625" style="27" customWidth="1"/>
-    <col min="4366" max="4608" width="9" style="27"/>
-    <col min="4609" max="4621" width="6.625" style="27" customWidth="1"/>
-    <col min="4622" max="4864" width="9" style="27"/>
-    <col min="4865" max="4877" width="6.625" style="27" customWidth="1"/>
-    <col min="4878" max="5120" width="9" style="27"/>
-    <col min="5121" max="5133" width="6.625" style="27" customWidth="1"/>
-    <col min="5134" max="5376" width="9" style="27"/>
-    <col min="5377" max="5389" width="6.625" style="27" customWidth="1"/>
-    <col min="5390" max="5632" width="9" style="27"/>
-    <col min="5633" max="5645" width="6.625" style="27" customWidth="1"/>
-    <col min="5646" max="5888" width="9" style="27"/>
-    <col min="5889" max="5901" width="6.625" style="27" customWidth="1"/>
-    <col min="5902" max="6144" width="9" style="27"/>
-    <col min="6145" max="6157" width="6.625" style="27" customWidth="1"/>
-    <col min="6158" max="6400" width="9" style="27"/>
-    <col min="6401" max="6413" width="6.625" style="27" customWidth="1"/>
-    <col min="6414" max="6656" width="9" style="27"/>
-    <col min="6657" max="6669" width="6.625" style="27" customWidth="1"/>
-    <col min="6670" max="6912" width="9" style="27"/>
-    <col min="6913" max="6925" width="6.625" style="27" customWidth="1"/>
-    <col min="6926" max="7168" width="9" style="27"/>
-    <col min="7169" max="7181" width="6.625" style="27" customWidth="1"/>
-    <col min="7182" max="7424" width="9" style="27"/>
-    <col min="7425" max="7437" width="6.625" style="27" customWidth="1"/>
-    <col min="7438" max="7680" width="9" style="27"/>
-    <col min="7681" max="7693" width="6.625" style="27" customWidth="1"/>
-    <col min="7694" max="7936" width="9" style="27"/>
-    <col min="7937" max="7949" width="6.625" style="27" customWidth="1"/>
-    <col min="7950" max="8192" width="9" style="27"/>
-    <col min="8193" max="8205" width="6.625" style="27" customWidth="1"/>
-    <col min="8206" max="8448" width="9" style="27"/>
-    <col min="8449" max="8461" width="6.625" style="27" customWidth="1"/>
-    <col min="8462" max="8704" width="9" style="27"/>
-    <col min="8705" max="8717" width="6.625" style="27" customWidth="1"/>
-    <col min="8718" max="8960" width="9" style="27"/>
-    <col min="8961" max="8973" width="6.625" style="27" customWidth="1"/>
-    <col min="8974" max="9216" width="9" style="27"/>
-    <col min="9217" max="9229" width="6.625" style="27" customWidth="1"/>
-    <col min="9230" max="9472" width="9" style="27"/>
-    <col min="9473" max="9485" width="6.625" style="27" customWidth="1"/>
-    <col min="9486" max="9728" width="9" style="27"/>
-    <col min="9729" max="9741" width="6.625" style="27" customWidth="1"/>
-    <col min="9742" max="9984" width="9" style="27"/>
-    <col min="9985" max="9997" width="6.625" style="27" customWidth="1"/>
-    <col min="9998" max="10240" width="9" style="27"/>
-    <col min="10241" max="10253" width="6.625" style="27" customWidth="1"/>
-    <col min="10254" max="10496" width="9" style="27"/>
-    <col min="10497" max="10509" width="6.625" style="27" customWidth="1"/>
-    <col min="10510" max="10752" width="9" style="27"/>
-    <col min="10753" max="10765" width="6.625" style="27" customWidth="1"/>
-    <col min="10766" max="11008" width="9" style="27"/>
-    <col min="11009" max="11021" width="6.625" style="27" customWidth="1"/>
-    <col min="11022" max="11264" width="9" style="27"/>
-    <col min="11265" max="11277" width="6.625" style="27" customWidth="1"/>
-    <col min="11278" max="11520" width="9" style="27"/>
-    <col min="11521" max="11533" width="6.625" style="27" customWidth="1"/>
-    <col min="11534" max="11776" width="9" style="27"/>
-    <col min="11777" max="11789" width="6.625" style="27" customWidth="1"/>
-    <col min="11790" max="12032" width="9" style="27"/>
-    <col min="12033" max="12045" width="6.625" style="27" customWidth="1"/>
-    <col min="12046" max="12288" width="9" style="27"/>
-    <col min="12289" max="12301" width="6.625" style="27" customWidth="1"/>
-    <col min="12302" max="12544" width="9" style="27"/>
-    <col min="12545" max="12557" width="6.625" style="27" customWidth="1"/>
-    <col min="12558" max="12800" width="9" style="27"/>
-    <col min="12801" max="12813" width="6.625" style="27" customWidth="1"/>
-    <col min="12814" max="13056" width="9" style="27"/>
-    <col min="13057" max="13069" width="6.625" style="27" customWidth="1"/>
-    <col min="13070" max="13312" width="9" style="27"/>
-    <col min="13313" max="13325" width="6.625" style="27" customWidth="1"/>
-    <col min="13326" max="13568" width="9" style="27"/>
-    <col min="13569" max="13581" width="6.625" style="27" customWidth="1"/>
-    <col min="13582" max="13824" width="9" style="27"/>
-    <col min="13825" max="13837" width="6.625" style="27" customWidth="1"/>
-    <col min="13838" max="14080" width="9" style="27"/>
-    <col min="14081" max="14093" width="6.625" style="27" customWidth="1"/>
-    <col min="14094" max="14336" width="9" style="27"/>
-    <col min="14337" max="14349" width="6.625" style="27" customWidth="1"/>
-    <col min="14350" max="14592" width="9" style="27"/>
-    <col min="14593" max="14605" width="6.625" style="27" customWidth="1"/>
-    <col min="14606" max="14848" width="9" style="27"/>
-    <col min="14849" max="14861" width="6.625" style="27" customWidth="1"/>
-    <col min="14862" max="15104" width="9" style="27"/>
-    <col min="15105" max="15117" width="6.625" style="27" customWidth="1"/>
-    <col min="15118" max="15360" width="9" style="27"/>
-    <col min="15361" max="15373" width="6.625" style="27" customWidth="1"/>
-    <col min="15374" max="15616" width="9" style="27"/>
-    <col min="15617" max="15629" width="6.625" style="27" customWidth="1"/>
-    <col min="15630" max="15872" width="9" style="27"/>
-    <col min="15873" max="15885" width="6.625" style="27" customWidth="1"/>
-    <col min="15886" max="16128" width="9" style="27"/>
-    <col min="16129" max="16141" width="6.625" style="27" customWidth="1"/>
-    <col min="16142" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter xml:space="preserve">&amp;C&amp;10　
-&amp;R
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -39721,7 +42259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -42672,7 +45210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
@@ -43360,7 +45898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
@@ -44048,7 +46586,7 @@
       </c>
       <c r="F6" s="79"/>
     </row>
-    <row r="7" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="80" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A7" s="79"/>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -44056,7 +46594,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="204" t="s">
-        <v>1878</v>
+        <v>1909</v>
       </c>
       <c r="F7" s="79"/>
     </row>
@@ -50061,10 +52599,11 @@
     <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -50719,7 +53258,7 @@
         <v>1850</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D11" s="114" t="s">
         <v>105</v>
@@ -50740,31 +53279,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>1851</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>149</v>
+        <v>1910</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>143</v>
       </c>
       <c r="E12" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>1887</v>
+        <v>1911</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>1922</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>1888</v>
+        <v>1923</v>
       </c>
       <c r="I12" s="73">
-        <v>45282</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -50773,19 +53312,19 @@
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="108" t="s">
-        <v>1879</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>1889</v>
+        <v>1878</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>1924</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>1888</v>
+        <v>1923</v>
       </c>
       <c r="I13" s="73">
-        <v>45282</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -50794,86 +53333,94 @@
       <c r="C14" s="107"/>
       <c r="D14" s="42"/>
       <c r="E14" s="108" t="s">
-        <v>1880</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>1889</v>
+        <v>1879</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>1925</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>1888</v>
+        <v>1923</v>
       </c>
       <c r="I14" s="73">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
-      <c r="B15" s="60" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D15" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="114" t="s">
-        <v>1882</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="60"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="108" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I15" s="73">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="60" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="42" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="114" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="60" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="108" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>1887</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>1888</v>
-      </c>
-      <c r="I16" s="73">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
       <c r="E17" s="108" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>1887</v>
+        <v>1911</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>1921</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>1888</v>
+        <v>1923</v>
       </c>
       <c r="I17" s="73">
-        <v>45282</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -50882,87 +53429,107 @@
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
       <c r="E18" s="108" t="s">
-        <v>1903</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>1887</v>
+        <v>1884</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>1927</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>1888</v>
+        <v>1923</v>
       </c>
       <c r="I18" s="73">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="67"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="72"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="38"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="108" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I19" s="73">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A20" s="38"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="108" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I20" s="73">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="67"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="72"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -50980,7 +53547,9 @@
       <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="35"/>
+      <c r="B27" s="111" t="s">
+        <v>256</v>
+      </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -51009,10 +53578,30 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G21">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -51030,7 +53619,9 @@
   </sheetPr>
   <dimension ref="A2:W24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -51057,12 +53648,12 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="222" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="222" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
@@ -51070,7 +53661,7 @@
     </row>
     <row r="6" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="224" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B6" s="192" t="s">
         <v>1133</v>
@@ -51145,22 +53736,22 @@
         <v>1132</v>
       </c>
       <c r="C7" s="188" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D7" s="119">
         <v>1</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>1890</v>
+        <v>1913</v>
       </c>
       <c r="F7" s="119" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G7" s="190" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="H7" s="190" t="s">
-        <v>1892</v>
+        <v>1915</v>
       </c>
       <c r="I7" s="118" t="s">
         <v>391</v>
@@ -51185,11 +53776,11 @@
       <c r="Q7" s="119"/>
       <c r="R7" s="119"/>
       <c r="S7" s="119" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="T7" s="217" t="str">
         <f>D7&amp;",'"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"','"&amp;L7&amp;"','"&amp;M7&amp;"','"&amp;N7&amp;"','"&amp;O7&amp;"','"&amp;P7&amp;"','"&amp;Q7&amp;"','"&amp;R7&amp;"','"&amp;S7&amp;"');"</f>
-        <v>1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+        <v>1,'XXCMM002A1103_TestUser366','TestUser366','l_user366','f_user366','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
       </c>
       <c r="U7" s="217" t="e">
         <f>#REF!&amp;#REF!&amp;#REF!&amp;T7</f>
@@ -51206,22 +53797,22 @@
         <v>1132</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D8" s="119">
         <v>2</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>1894</v>
+        <v>1916</v>
       </c>
       <c r="F8" s="119" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G8" s="190" t="s">
-        <v>1895</v>
+        <v>1917</v>
       </c>
       <c r="H8" s="190" t="s">
-        <v>1896</v>
+        <v>1918</v>
       </c>
       <c r="I8" s="118" t="s">
         <v>391</v>
@@ -51246,11 +53837,11 @@
       <c r="Q8" s="119"/>
       <c r="R8" s="119"/>
       <c r="S8" s="119" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="T8" s="217" t="str">
         <f t="shared" ref="T8" si="0">D8&amp;",'"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"','"&amp;L8&amp;"','"&amp;M8&amp;"','"&amp;N8&amp;"','"&amp;O8&amp;"','"&amp;P8&amp;"','"&amp;Q8&amp;"','"&amp;R8&amp;"','"&amp;S8&amp;"');"</f>
-        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+        <v>2,'XXCMM002A1103_TestUser367','TestUser367','l_user367','f_user367','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
       </c>
       <c r="U8" s="217" t="e">
         <f>#REF!&amp;#REF!&amp;#REF!&amp;T8</f>
@@ -51261,7 +53852,7 @@
     </row>
     <row r="11" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="224" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B11" s="192" t="s">
         <v>1133</v>
@@ -51336,22 +53927,22 @@
         <v>1132</v>
       </c>
       <c r="C12" s="188" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D12" s="119">
         <v>2</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>1894</v>
+        <v>1916</v>
       </c>
       <c r="F12" s="119" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G12" s="190" t="s">
-        <v>1895</v>
+        <v>1917</v>
       </c>
       <c r="H12" s="190" t="s">
-        <v>1896</v>
+        <v>1918</v>
       </c>
       <c r="I12" s="118" t="s">
         <v>391</v>
@@ -51376,11 +53967,11 @@
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
       <c r="S12" s="119" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="T12" s="217" t="str">
         <f t="shared" ref="T12" si="1">D12&amp;",'"&amp;E12&amp;"','"&amp;F12&amp;"','"&amp;G12&amp;"','"&amp;H12&amp;"','"&amp;I12&amp;"','"&amp;J12&amp;"','"&amp;K12&amp;"','"&amp;L12&amp;"','"&amp;M12&amp;"','"&amp;N12&amp;"','"&amp;O12&amp;"','"&amp;P12&amp;"','"&amp;Q12&amp;"','"&amp;R12&amp;"','"&amp;S12&amp;"');"</f>
-        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+        <v>2,'XXCMM002A1103_TestUser367','TestUser367','l_user367','f_user367','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
       </c>
       <c r="U12" s="217" t="e">
         <f>#REF!&amp;#REF!&amp;#REF!&amp;T12</f>
@@ -51400,12 +53991,12 @@
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="222" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="224" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B18" s="192" t="s">
         <v>1133</v>
@@ -51474,28 +54065,28 @@
     </row>
     <row r="19" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="225" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B19" s="219" t="s">
         <v>1131</v>
       </c>
       <c r="C19" s="188" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D19" s="119">
         <v>1</v>
       </c>
       <c r="E19" s="119" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="F19" s="119" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G19" s="190" t="s">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="H19" s="190" t="s">
-        <v>1892</v>
+        <v>1915</v>
       </c>
       <c r="I19" s="118" t="s">
         <v>391</v>
@@ -51520,11 +54111,11 @@
         <v>1</v>
       </c>
       <c r="S19" s="119" t="s">
-        <v>1906</v>
+        <v>1919</v>
       </c>
       <c r="T19" s="217" t="str">
         <f>D19&amp;",'"&amp;E19&amp;"','"&amp;F19&amp;"','"&amp;G19&amp;"','"&amp;H19&amp;"','"&amp;I19&amp;"','"&amp;J19&amp;"','"&amp;K19&amp;"','"&amp;L19&amp;"','"&amp;M19&amp;"','"&amp;N19&amp;"','"&amp;O19&amp;"','"&amp;P19&amp;"','"&amp;Q19&amp;"','"&amp;R19&amp;"','"&amp;S19&amp;"');"</f>
-        <v>1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
+        <v>1,'XXCMM002A1103_TestUser366','TestUser366','l_user366','f_user366','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
       </c>
       <c r="U19" s="217" t="e">
         <f>#REF!&amp;#REF!&amp;#REF!&amp;T19</f>
@@ -51535,28 +54126,28 @@
     </row>
     <row r="20" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="225" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B20" s="219" t="s">
         <v>1131</v>
       </c>
       <c r="C20" s="188" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D20" s="119">
         <v>2</v>
       </c>
       <c r="E20" s="119" t="s">
-        <v>1894</v>
+        <v>1916</v>
       </c>
       <c r="F20" s="119" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G20" s="190" t="s">
-        <v>1895</v>
+        <v>1917</v>
       </c>
       <c r="H20" s="190" t="s">
-        <v>1896</v>
+        <v>1918</v>
       </c>
       <c r="I20" s="118" t="s">
         <v>391</v>
@@ -51581,11 +54172,11 @@
         <v>1</v>
       </c>
       <c r="S20" s="119" t="s">
-        <v>1906</v>
+        <v>1919</v>
       </c>
       <c r="T20" s="217" t="str">
         <f t="shared" ref="T20" si="2">D20&amp;",'"&amp;E20&amp;"','"&amp;F20&amp;"','"&amp;G20&amp;"','"&amp;H20&amp;"','"&amp;I20&amp;"','"&amp;J20&amp;"','"&amp;K20&amp;"','"&amp;L20&amp;"','"&amp;M20&amp;"','"&amp;N20&amp;"','"&amp;O20&amp;"','"&amp;P20&amp;"','"&amp;Q20&amp;"','"&amp;R20&amp;"','"&amp;S20&amp;"');"</f>
-        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
+        <v>2,'XXCMM002A1103_TestUser367','TestUser367','l_user367','f_user367','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
       </c>
       <c r="U20" s="217" t="e">
         <f>#REF!&amp;#REF!&amp;#REF!&amp;T20</f>
@@ -51596,7 +54187,7 @@
     </row>
     <row r="23" spans="1:23" s="214" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="224" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B23" s="192" t="s">
         <v>1133</v>
@@ -51665,28 +54256,28 @@
     </row>
     <row r="24" spans="1:23" s="214" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="225" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B24" s="219" t="s">
         <v>1131</v>
       </c>
       <c r="C24" s="188" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D24" s="119">
         <v>2</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>1894</v>
+        <v>1916</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G24" s="190" t="s">
-        <v>1895</v>
+        <v>1917</v>
       </c>
       <c r="H24" s="190" t="s">
-        <v>1896</v>
+        <v>1918</v>
       </c>
       <c r="I24" s="118" t="s">
         <v>391</v>
@@ -51711,11 +54302,11 @@
         <v>1</v>
       </c>
       <c r="S24" s="119" t="s">
-        <v>1907</v>
+        <v>1919</v>
       </c>
       <c r="T24" s="217" t="str">
         <f t="shared" ref="T24" si="3">D24&amp;",'"&amp;E24&amp;"','"&amp;F24&amp;"','"&amp;G24&amp;"','"&amp;H24&amp;"','"&amp;I24&amp;"','"&amp;J24&amp;"','"&amp;K24&amp;"','"&amp;L24&amp;"','"&amp;M24&amp;"','"&amp;N24&amp;"','"&amp;O24&amp;"','"&amp;P24&amp;"','"&amp;Q24&amp;"','"&amp;R24&amp;"','"&amp;S24&amp;"');"</f>
-        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
+        <v>2,'XXCMM002A1103_TestUser367','TestUser367','l_user367','f_user367','XXCMM002A1103','','','','','1','1','1','1','1','REMOVE');</v>
       </c>
       <c r="U24" s="217" t="e">
         <f>#REF!&amp;#REF!&amp;#REF!&amp;T24</f>
